--- a/Leetcode Solution Tracker Sheet.xlsx
+++ b/Leetcode Solution Tracker Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwang/Desktop/GitHub/programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EA6730-44F4-B84F-B9BE-D0206EE63FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48BCA42-020B-C148-8CA1-E0608F4CEA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="210">
   <si>
     <t>Each sheet of this spreadsheet contains a leetcode pattern. While these questions aren't an exhaustive list of all leetcode questions, if you are able to  go through these questions with relative ease, most leetode questions should come relatively easy for you.</t>
   </si>
@@ -669,12 +669,33 @@
   <si>
     <t>Use unordered maps for adj lists</t>
   </si>
+  <si>
+    <t>Cycle detection problem. Kahn algorithm</t>
+  </si>
+  <si>
+    <t>Trivial after 207</t>
+  </si>
+  <si>
+    <t>Snakes &amp; Ladders</t>
+  </si>
+  <si>
+    <t>Shortest Path: BFS for unweighted, Dijkstra's for weighted</t>
+  </si>
+  <si>
+    <t>Minimum Genetic Mutation</t>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+  </si>
+  <si>
+    <t>BFS always returns shortest path</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,6 +749,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -767,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -807,6 +834,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18030,8 +18059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18039,12 +18068,12 @@
     <col min="1" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="37.5" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -18061,25 +18090,25 @@
         <v>16</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="G1" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="H1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -18095,23 +18124,23 @@
       <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="20" t="s">
         <v>24</v>
       </c>
+      <c r="F2" s="8">
+        <f>DATE(YEAR(A2),MONTH(A2),DAY(A2) + IF(E2 = "Y", 14, 7))</f>
+        <v>44354</v>
+      </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G19" si="0">DATE(YEAR(A2),MONTH(A2),DAY(A2) + IF(F2 = "Y", 14, 7))</f>
-        <v>44354</v>
+        <f>DATE(YEAR(F2),MONTH(F2),DAY(F2)+7)</f>
+        <v>44361</v>
       </c>
       <c r="H2" s="8">
-        <f>DATE(YEAR(G2),MONTH(G2),DAY(G2)+7)</f>
-        <v>44361</v>
+        <f>DATE(YEAR(G2),MONTH(G2),DAY(G2)+14)</f>
+        <v>44375</v>
       </c>
       <c r="I2" s="8">
-        <f>DATE(YEAR(H2),MONTH(H2),DAY(H2)+14)</f>
-        <v>44375</v>
-      </c>
-      <c r="J2" s="8">
-        <f>DATE(YEAR(I2),MONTH(I2),DAY(I2)+28)</f>
+        <f>DATE(YEAR(H2),MONTH(H2),DAY(H2)+28)</f>
         <v>44403</v>
       </c>
     </row>
@@ -18126,10 +18155,8 @@
       <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="7">
@@ -18141,10 +18168,8 @@
       <c r="D4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
@@ -18156,10 +18181,8 @@
       <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
@@ -18171,10 +18194,8 @@
       <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="7">
@@ -18186,10 +18207,8 @@
       <c r="D7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -18201,10 +18220,8 @@
       <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -18216,10 +18233,8 @@
       <c r="D9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -18231,10 +18246,8 @@
       <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -18246,10 +18259,8 @@
       <c r="D11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
@@ -18261,10 +18272,8 @@
       <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
@@ -18276,10 +18285,8 @@
       <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
@@ -18291,10 +18298,8 @@
       <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
@@ -18306,10 +18311,8 @@
       <c r="D15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
@@ -18321,12 +18324,10 @@
       <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E16" s="20"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
         <v>117</v>
       </c>
@@ -18336,12 +18337,10 @@
       <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E17" s="20"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
         <v>199</v>
       </c>
@@ -18351,12 +18350,10 @@
       <c r="D18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E18" s="20"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
         <v>863</v>
       </c>
@@ -18366,618 +18363,676 @@
       <c r="D19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="8">
+      <c r="E19" s="20"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>45130</v>
+      </c>
+      <c r="B20" s="13">
+        <v>909</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="0">DATE(YEAR(A20),MONTH(A20),DAY(A20) + IF(E20 = "Y", 14, 7))</f>
+        <v>45137</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>45131</v>
+      </c>
+      <c r="B21" s="13">
+        <v>433</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G65" s="8"/>
-    </row>
-    <row r="66" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G66" s="8"/>
-    </row>
-    <row r="67" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G67" s="8"/>
-    </row>
-    <row r="68" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G68" s="8"/>
-    </row>
-    <row r="69" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G69" s="8"/>
-    </row>
-    <row r="70" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G70" s="8"/>
-    </row>
-    <row r="71" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G72" s="8"/>
-    </row>
-    <row r="73" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G73" s="8"/>
-    </row>
-    <row r="74" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G74" s="8"/>
-    </row>
-    <row r="75" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G75" s="8"/>
-    </row>
-    <row r="76" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G76" s="8"/>
-    </row>
-    <row r="77" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G78" s="8"/>
-    </row>
-    <row r="79" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G79" s="8"/>
-    </row>
-    <row r="80" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G80" s="8"/>
-    </row>
-    <row r="81" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G81" s="8"/>
-    </row>
-    <row r="82" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G82" s="8"/>
-    </row>
-    <row r="83" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G83" s="8"/>
-    </row>
-    <row r="84" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G84" s="8"/>
-    </row>
-    <row r="85" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G85" s="8"/>
-    </row>
-    <row r="86" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G86" s="8"/>
-    </row>
-    <row r="87" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G87" s="8"/>
-    </row>
-    <row r="88" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G88" s="8"/>
-    </row>
-    <row r="89" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="8"/>
-    </row>
-    <row r="90" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G90" s="8"/>
-    </row>
-    <row r="91" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G91" s="8"/>
-    </row>
-    <row r="92" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G92" s="8"/>
-    </row>
-    <row r="93" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G93" s="8"/>
-    </row>
-    <row r="94" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G94" s="8"/>
-    </row>
-    <row r="95" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G95" s="8"/>
-    </row>
-    <row r="96" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G96" s="8"/>
-    </row>
-    <row r="97" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G97" s="8"/>
-    </row>
-    <row r="98" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G98" s="8"/>
-    </row>
-    <row r="99" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G99" s="8"/>
-    </row>
-    <row r="100" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G100" s="8"/>
-    </row>
-    <row r="101" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G101" s="8"/>
-    </row>
-    <row r="102" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G102" s="8"/>
-    </row>
-    <row r="103" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G103" s="8"/>
-    </row>
-    <row r="104" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G104" s="8"/>
-    </row>
-    <row r="105" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G105" s="8"/>
-    </row>
-    <row r="106" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G106" s="8"/>
-    </row>
-    <row r="107" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G107" s="8"/>
-    </row>
-    <row r="108" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G108" s="8"/>
-    </row>
-    <row r="109" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G109" s="8"/>
-    </row>
-    <row r="110" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G110" s="8"/>
-    </row>
-    <row r="111" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G111" s="8"/>
-    </row>
-    <row r="112" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G112" s="8"/>
-    </row>
-    <row r="113" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G113" s="8"/>
-    </row>
-    <row r="114" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G114" s="8"/>
-    </row>
-    <row r="115" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G115" s="8"/>
-    </row>
-    <row r="116" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G116" s="8"/>
-    </row>
-    <row r="117" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G117" s="8"/>
-    </row>
-    <row r="118" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G118" s="8"/>
-    </row>
-    <row r="119" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G119" s="8"/>
-    </row>
-    <row r="120" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G120" s="8"/>
-    </row>
-    <row r="121" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G121" s="8"/>
-    </row>
-    <row r="122" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G122" s="8"/>
-    </row>
-    <row r="123" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G123" s="8"/>
-    </row>
-    <row r="124" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G124" s="8"/>
-    </row>
-    <row r="125" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G125" s="8"/>
-    </row>
-    <row r="126" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G126" s="8"/>
-    </row>
-    <row r="127" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G127" s="8"/>
-    </row>
-    <row r="128" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G128" s="8"/>
-    </row>
-    <row r="129" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G129" s="8"/>
-    </row>
-    <row r="130" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G130" s="8"/>
-    </row>
-    <row r="131" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G131" s="8"/>
-    </row>
-    <row r="132" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G132" s="8"/>
-    </row>
-    <row r="133" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G133" s="8"/>
-    </row>
-    <row r="134" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G134" s="8"/>
-    </row>
-    <row r="135" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G135" s="8"/>
-    </row>
-    <row r="136" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G136" s="8"/>
-    </row>
-    <row r="137" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G137" s="8"/>
-    </row>
-    <row r="138" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G138" s="8"/>
-    </row>
-    <row r="139" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G139" s="8"/>
-    </row>
-    <row r="140" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G140" s="8"/>
-    </row>
-    <row r="141" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G141" s="8"/>
-    </row>
-    <row r="142" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G142" s="8"/>
-    </row>
-    <row r="143" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G143" s="8"/>
-    </row>
-    <row r="144" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G144" s="8"/>
-    </row>
-    <row r="145" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G145" s="8"/>
-    </row>
-    <row r="146" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G146" s="8"/>
-    </row>
-    <row r="147" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G147" s="8"/>
-    </row>
-    <row r="148" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G148" s="8"/>
-    </row>
-    <row r="149" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G149" s="8"/>
-    </row>
-    <row r="150" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G150" s="8"/>
-    </row>
-    <row r="151" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G151" s="8"/>
-    </row>
-    <row r="152" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G152" s="8"/>
-    </row>
-    <row r="153" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G153" s="8"/>
-    </row>
-    <row r="154" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G154" s="8"/>
-    </row>
-    <row r="155" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G155" s="8"/>
-    </row>
-    <row r="156" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G156" s="8"/>
-    </row>
-    <row r="157" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G157" s="8"/>
-    </row>
-    <row r="158" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G158" s="8"/>
-    </row>
-    <row r="159" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G159" s="8"/>
-    </row>
-    <row r="160" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G160" s="8"/>
-    </row>
-    <row r="161" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G161" s="8"/>
-    </row>
-    <row r="162" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G162" s="8"/>
-    </row>
-    <row r="163" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G163" s="8"/>
-    </row>
-    <row r="164" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G164" s="8"/>
-    </row>
-    <row r="165" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G165" s="8"/>
-    </row>
-    <row r="166" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G166" s="8"/>
-    </row>
-    <row r="167" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G167" s="8"/>
-    </row>
-    <row r="168" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G168" s="8"/>
-    </row>
-    <row r="169" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G169" s="8"/>
-    </row>
-    <row r="170" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G170" s="8"/>
-    </row>
-    <row r="171" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G171" s="8"/>
-    </row>
-    <row r="172" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G172" s="8"/>
-    </row>
-    <row r="173" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G173" s="8"/>
-    </row>
-    <row r="174" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G174" s="8"/>
-    </row>
-    <row r="175" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G175" s="8"/>
-    </row>
-    <row r="176" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G176" s="8"/>
-    </row>
-    <row r="177" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G177" s="8"/>
-    </row>
-    <row r="178" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G178" s="8"/>
-    </row>
-    <row r="179" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G179" s="8"/>
-    </row>
-    <row r="180" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G180" s="8"/>
-    </row>
-    <row r="181" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G181" s="8"/>
-    </row>
-    <row r="182" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G182" s="8"/>
-    </row>
-    <row r="183" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G183" s="8"/>
-    </row>
-    <row r="184" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G184" s="8"/>
-    </row>
-    <row r="185" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G185" s="8"/>
-    </row>
-    <row r="186" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G186" s="8"/>
-    </row>
-    <row r="187" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G187" s="8"/>
-    </row>
-    <row r="188" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G188" s="8"/>
-    </row>
-    <row r="189" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G189" s="8"/>
-    </row>
-    <row r="190" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G190" s="8"/>
-    </row>
-    <row r="191" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G191" s="8"/>
-    </row>
-    <row r="192" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G192" s="8"/>
-    </row>
-    <row r="193" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G193" s="8"/>
-    </row>
-    <row r="194" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G194" s="8"/>
-    </row>
-    <row r="195" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G195" s="8"/>
-    </row>
-    <row r="196" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G196" s="8"/>
-    </row>
-    <row r="197" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G197" s="8"/>
-    </row>
-    <row r="198" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G198" s="8"/>
-    </row>
-    <row r="199" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G199" s="8"/>
-    </row>
-    <row r="200" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G200" s="8"/>
-    </row>
-    <row r="201" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G201" s="8"/>
-    </row>
-    <row r="202" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G202" s="8"/>
-    </row>
-    <row r="203" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G203" s="8"/>
-    </row>
-    <row r="204" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G204" s="8"/>
-    </row>
-    <row r="205" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G205" s="8"/>
-    </row>
-    <row r="206" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G206" s="8"/>
-    </row>
-    <row r="207" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G207" s="8"/>
-    </row>
-    <row r="208" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G208" s="8"/>
-    </row>
-    <row r="209" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G209" s="8"/>
-    </row>
-    <row r="210" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G210" s="8"/>
-    </row>
-    <row r="211" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G211" s="8"/>
-    </row>
-    <row r="212" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G212" s="8"/>
-    </row>
-    <row r="213" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G213" s="8"/>
-    </row>
-    <row r="214" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G214" s="8"/>
-    </row>
-    <row r="215" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G215" s="8"/>
-    </row>
-    <row r="216" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G216" s="8"/>
-    </row>
-    <row r="217" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G217" s="8"/>
-    </row>
-    <row r="218" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G218" s="8"/>
-    </row>
-    <row r="219" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G219" s="8"/>
-    </row>
-    <row r="220" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G220" s="8"/>
-    </row>
-    <row r="221" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>45131</v>
+      </c>
+      <c r="B22" s="13">
+        <v>127</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22" si="1">DATE(YEAR(A22),MONTH(A22),DAY(A22) + IF(E22 = "Y", 14, 7))</f>
+        <v>45138</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F100" s="8"/>
+    </row>
+    <row r="101" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F102" s="8"/>
+    </row>
+    <row r="103" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F103" s="8"/>
+    </row>
+    <row r="104" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F105" s="8"/>
+    </row>
+    <row r="106" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F106" s="8"/>
+    </row>
+    <row r="107" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F107" s="8"/>
+    </row>
+    <row r="108" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F108" s="8"/>
+    </row>
+    <row r="109" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F109" s="8"/>
+    </row>
+    <row r="110" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F112" s="8"/>
+    </row>
+    <row r="113" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F114" s="8"/>
+    </row>
+    <row r="115" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F115" s="8"/>
+    </row>
+    <row r="116" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F116" s="8"/>
+    </row>
+    <row r="117" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F118" s="8"/>
+    </row>
+    <row r="119" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F119" s="8"/>
+    </row>
+    <row r="120" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F120" s="8"/>
+    </row>
+    <row r="121" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F121" s="8"/>
+    </row>
+    <row r="122" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F122" s="8"/>
+    </row>
+    <row r="123" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F123" s="8"/>
+    </row>
+    <row r="124" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F124" s="8"/>
+    </row>
+    <row r="125" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F125" s="8"/>
+    </row>
+    <row r="126" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F126" s="8"/>
+    </row>
+    <row r="127" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F127" s="8"/>
+    </row>
+    <row r="128" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F128" s="8"/>
+    </row>
+    <row r="129" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F129" s="8"/>
+    </row>
+    <row r="130" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F130" s="8"/>
+    </row>
+    <row r="131" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F131" s="8"/>
+    </row>
+    <row r="132" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F132" s="8"/>
+    </row>
+    <row r="133" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F133" s="8"/>
+    </row>
+    <row r="134" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F134" s="8"/>
+    </row>
+    <row r="135" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F135" s="8"/>
+    </row>
+    <row r="136" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F136" s="8"/>
+    </row>
+    <row r="137" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F137" s="8"/>
+    </row>
+    <row r="138" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F138" s="8"/>
+    </row>
+    <row r="139" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F139" s="8"/>
+    </row>
+    <row r="140" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F140" s="8"/>
+    </row>
+    <row r="141" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F141" s="8"/>
+    </row>
+    <row r="142" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F142" s="8"/>
+    </row>
+    <row r="143" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F143" s="8"/>
+    </row>
+    <row r="144" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F144" s="8"/>
+    </row>
+    <row r="145" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F145" s="8"/>
+    </row>
+    <row r="146" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F146" s="8"/>
+    </row>
+    <row r="147" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F147" s="8"/>
+    </row>
+    <row r="148" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F148" s="8"/>
+    </row>
+    <row r="149" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F149" s="8"/>
+    </row>
+    <row r="150" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F150" s="8"/>
+    </row>
+    <row r="151" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F151" s="8"/>
+    </row>
+    <row r="152" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F152" s="8"/>
+    </row>
+    <row r="153" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F153" s="8"/>
+    </row>
+    <row r="154" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F154" s="8"/>
+    </row>
+    <row r="155" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F155" s="8"/>
+    </row>
+    <row r="156" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F156" s="8"/>
+    </row>
+    <row r="157" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F157" s="8"/>
+    </row>
+    <row r="158" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F158" s="8"/>
+    </row>
+    <row r="159" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F159" s="8"/>
+    </row>
+    <row r="160" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F160" s="8"/>
+    </row>
+    <row r="161" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F161" s="8"/>
+    </row>
+    <row r="162" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F162" s="8"/>
+    </row>
+    <row r="163" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F163" s="8"/>
+    </row>
+    <row r="164" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F164" s="8"/>
+    </row>
+    <row r="165" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F165" s="8"/>
+    </row>
+    <row r="166" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F166" s="8"/>
+    </row>
+    <row r="167" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F167" s="8"/>
+    </row>
+    <row r="168" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F168" s="8"/>
+    </row>
+    <row r="169" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F169" s="8"/>
+    </row>
+    <row r="170" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F170" s="8"/>
+    </row>
+    <row r="171" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F171" s="8"/>
+    </row>
+    <row r="172" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F172" s="8"/>
+    </row>
+    <row r="173" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F173" s="8"/>
+    </row>
+    <row r="174" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F174" s="8"/>
+    </row>
+    <row r="175" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F175" s="8"/>
+    </row>
+    <row r="176" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F176" s="8"/>
+    </row>
+    <row r="177" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F177" s="8"/>
+    </row>
+    <row r="178" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F178" s="8"/>
+    </row>
+    <row r="179" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F179" s="8"/>
+    </row>
+    <row r="180" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F180" s="8"/>
+    </row>
+    <row r="181" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F181" s="8"/>
+    </row>
+    <row r="182" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F182" s="8"/>
+    </row>
+    <row r="183" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F183" s="8"/>
+    </row>
+    <row r="184" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F184" s="8"/>
+    </row>
+    <row r="185" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F185" s="8"/>
+    </row>
+    <row r="186" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F186" s="8"/>
+    </row>
+    <row r="187" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F187" s="8"/>
+    </row>
+    <row r="188" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F188" s="8"/>
+    </row>
+    <row r="189" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F189" s="8"/>
+    </row>
+    <row r="190" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F190" s="8"/>
+    </row>
+    <row r="191" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F191" s="8"/>
+    </row>
+    <row r="192" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F192" s="8"/>
+    </row>
+    <row r="193" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F193" s="8"/>
+    </row>
+    <row r="194" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F194" s="8"/>
+    </row>
+    <row r="195" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F195" s="8"/>
+    </row>
+    <row r="196" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F196" s="8"/>
+    </row>
+    <row r="197" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F197" s="8"/>
+    </row>
+    <row r="198" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F198" s="8"/>
+    </row>
+    <row r="199" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F199" s="8"/>
+    </row>
+    <row r="200" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F200" s="8"/>
+    </row>
+    <row r="201" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F201" s="8"/>
+    </row>
+    <row r="202" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F202" s="8"/>
+    </row>
+    <row r="203" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F203" s="8"/>
+    </row>
+    <row r="204" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F204" s="8"/>
+    </row>
+    <row r="205" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F205" s="8"/>
+    </row>
+    <row r="206" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F206" s="8"/>
+    </row>
+    <row r="207" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F207" s="8"/>
+    </row>
+    <row r="208" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F208" s="8"/>
+    </row>
+    <row r="209" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F209" s="8"/>
+    </row>
+    <row r="210" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F210" s="8"/>
+    </row>
+    <row r="211" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F211" s="8"/>
+    </row>
+    <row r="212" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F212" s="8"/>
+    </row>
+    <row r="213" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F213" s="8"/>
+    </row>
+    <row r="214" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F214" s="8"/>
+    </row>
+    <row r="215" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F215" s="8"/>
+    </row>
+    <row r="216" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F216" s="8"/>
+    </row>
+    <row r="217" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F217" s="8"/>
+    </row>
+    <row r="218" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F218" s="8"/>
+    </row>
+    <row r="219" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F219" s="8"/>
+    </row>
+    <row r="220" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F220" s="8"/>
+    </row>
+    <row r="221" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30919,10 +30974,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K1002"/>
+  <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31157,12 +31212,9 @@
       <c r="E13" s="19"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B14" s="7">
-        <v>200</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>30</v>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>27</v>
@@ -31171,51 +31223,63 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>45129</v>
+      </c>
+      <c r="B15" s="7">
+        <v>200</v>
+      </c>
       <c r="C15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="8">
+        <f>DATE(YEAR(A15),MONTH(A15),DAY(A15) + IF(E15 = "Y", 14, 7))</f>
+        <v>45143</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>45129</v>
       </c>
-      <c r="B16" s="7">
-        <v>200</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="B16" s="13">
+        <v>130</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="F16" s="8">
         <f>DATE(YEAR(A16),MONTH(A16),DAY(A16) + IF(E16 = "Y", 14, 7))</f>
-        <v>45143</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>200</v>
-      </c>
+        <v>45136</v>
+      </c>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>45129</v>
       </c>
       <c r="B17" s="13">
-        <v>130</v>
+        <v>399</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>27</v>
@@ -31228,35 +31292,26 @@
         <v>45136</v>
       </c>
       <c r="J17" s="12"/>
+      <c r="K17" s="12" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>45129</v>
-      </c>
-      <c r="B18" s="13">
-        <v>399</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="F18" s="8">
-        <f>DATE(YEAR(A18),MONTH(A18),DAY(A18) + IF(E18 = "Y", 14, 7))</f>
-        <v>45136</v>
-      </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C19" s="7" t="s">
-        <v>32</v>
+      <c r="E18" s="19"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
+        <v>230</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>27</v>
@@ -31265,37 +31320,59 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <v>45130</v>
+      </c>
       <c r="B20" s="7">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E20" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="8">
+        <f>DATE(YEAR(A20),MONTH(A20),DAY(A20) + IF(E20 = "Y", 14, 7))</f>
+        <v>45137</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>45131</v>
+      </c>
       <c r="B21" s="7">
-        <v>207</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>33</v>
+        <v>210</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="8">
+        <f>DATE(YEAR(A21),MONTH(A21),DAY(A21) + IF(E21 = "Y", 14, 7))</f>
+        <v>45145</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>27</v>
@@ -31305,10 +31382,10 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7">
-        <v>199</v>
+        <v>863</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>27</v>
@@ -31318,10 +31395,10 @@
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7">
-        <v>863</v>
+        <v>113</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>27</v>
@@ -31331,10 +31408,10 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7">
-        <v>113</v>
+        <v>437</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>27</v>
@@ -31344,10 +31421,10 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7">
-        <v>437</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>89</v>
+        <v>236</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>27</v>
@@ -31357,10 +31434,10 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7">
-        <v>236</v>
+        <v>654</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>27</v>
@@ -31370,10 +31447,10 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7">
-        <v>654</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>91</v>
+        <v>662</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>27</v>
@@ -31383,10 +31460,10 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7">
-        <v>662</v>
+        <v>105</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>27</v>
@@ -31396,10 +31473,10 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>27</v>
@@ -31409,23 +31486,23 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>27</v>
+        <v>95</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>58</v>
@@ -31435,10 +31512,10 @@
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7">
-        <v>212</v>
+        <v>1203</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>58</v>
@@ -31447,16 +31524,6 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="7">
-        <v>1203</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="19"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32056,9 +32123,7 @@
     <row r="233" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F233" s="8"/>
     </row>
-    <row r="234" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F234" s="8"/>
-    </row>
+    <row r="234" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="235" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="236" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="237" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32826,7 +32891,6 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
